--- a/VBA Assignment.xlsx
+++ b/VBA Assignment.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swa/Documents/UC Irvine/GitLab/Homework/02-VBA-Scripting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7BB9EEC-2CFC-F745-93FD-5E266E7A4E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3358A2-C9C8-E24A-9367-3EA0F4BC1156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5100" yWindow="12080" windowWidth="27240" windowHeight="16440" xr2:uid="{BB239C06-04E5-8346-8081-373F344CDF6D}"/>
   </bookViews>
@@ -30,6 +30,29 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>Opening Price</t>
+  </si>
+  <si>
+    <t>Closing Price</t>
+  </si>
+  <si>
+    <t>Percent Change</t>
+  </si>
+  <si>
+    <t>Annual Change</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -379,12 +402,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853824DA-B4F5-4F4F-81ED-DC96469F8235}">
-  <dimension ref="A1"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>